--- a/V3/fundamentals_test_cases.xlsx
+++ b/V3/fundamentals_test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheba/CPR101NAA_BB05/V3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B35255CC-7846-3248-BDA0-696B8331549F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF014F89-85E8-F846-A9A3-A3A3CAE7981C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28120" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>Comments</t>
   </si>
@@ -126,76 +126,95 @@
     <t xml:space="preserve">+ / - Description </t>
   </si>
   <si>
-    <t>+ Open documents of different sizes</t>
-  </si>
-  <si>
-    <t>+ Edge case: Open empty document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open documents of different sizes. Open each file, add a new row or paragraph of content at the beginning, middle, and end of the document. Save the file. </t>
-  </si>
-  <si>
-    <t>The documents can be opened, edited, and saved successfully. Verify the contents of the saved file reflect changes made.</t>
-  </si>
-  <si>
-    <t>huge.txt</t>
-  </si>
-  <si>
-    <t>Test data files: small.txt, big.txt</t>
-  </si>
-  <si>
-    <t>empty.txt</t>
-  </si>
-  <si>
-    <t>almost-too-big.txt</t>
-  </si>
-  <si>
-    <t>- Open document over maximum size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open documents where size exceeds available memory. </t>
-  </si>
-  <si>
-    <t>Open zero byte size file. Add content and save.</t>
-  </si>
-  <si>
-    <t>Empty edit window at start without error (or perhaps warning). Verify the contents of the saved file reflect additions made.</t>
-  </si>
-  <si>
-    <t>Open file near maximum size. Add sufficient content to exceed application memory and attempt to save.</t>
-  </si>
-  <si>
-    <t>Open file near maximum size. Add sufficient content to exceed OS file system's maximum size, and attempt to save.</t>
-  </si>
-  <si>
-    <t>graceful recovery without excessive data loss.</t>
-  </si>
-  <si>
-    <t>+ Edge case: Open document near maximum size</t>
-  </si>
-  <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>When the document is too big for the system to handle, an error message is shown offering recovery and document closing / saving options.</t>
-  </si>
-  <si>
-    <t>BSOD Application memory limit exceeded, perhaps due to memory leak after many revisions.</t>
-  </si>
-  <si>
     <t>Message issued: "Document exceeds available memory. Would you like to…"</t>
   </si>
   <si>
-    <t>openFile()
-editFile()
-saveFile()</t>
+    <t>Typically expected values (1-30 chars)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3, 2, fadsfa, sfdsafsafdsafasfadfasdfdsa, 44, </t>
+  </si>
+  <si>
+    <t>prompt for char position/display char length/display converted int/display converted string</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>+ Edge case: Maximum</t>
+  </si>
+  <si>
+    <t>dfdfasfdsafasfasfasfasdfasfdsfasdfsafsdafasdfasdfdsafasdfadadsa, 24324324234324234324324234324324324234E23423</t>
+  </si>
+  <si>
+    <t>+ Edge case: Minimum</t>
+  </si>
+  <si>
+    <t>1, 0, 4, F, 6</t>
+  </si>
+  <si>
+    <t>Edge Case: 0</t>
+  </si>
+  <si>
+    <t>Edge case: empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Reprompt for entry</t>
+  </si>
+  <si>
+    <t>Edge case: full</t>
+  </si>
+  <si>
+    <t>DSFASFSADFDASFADSFSAFDASFDSAFDSAFADSFASFSADFDASFADSFSAFDASFDSAFDSAFA  DSFASFSADFDASFADSFSAFDASFDSAFDSAFA  DSFASFSADFDASFADSFSAFDASFDSAFDSAFA  DSFASFSADFDASFADSFSAFDASFDSAFDSAFA  DSFASFSADFDASFADSFSAFDASFDSAFDSAFA  DSFASFSADFDASFADSFSAFDASFDSAFDSAFA  DSFASFSADFDASFADSFSAFDASFDSAFDSAFA  DSFASFSADFDASFADSFSAFDASFDSAFDSAFA  DSFASFSADFDASFADSFSAFDASFDSAFDSAFA  DSFASFSADFDASFADSFSAFDASFDSAFDSAFA  DSFASFSADFDASFADSFSAFDASFDSAFDSAFA  DSFASFSADFDASFADSFSAFDASFDSAFDSAFA  DSFASFSADFDASFADSFSAFDASFDSAFDSAFA  DSFASFSADFDASFADSFSAFDASFDSAFDSAFA  DSFASFSAFDASFADSFSAFDASFDSAFDSAFA  ,
+3242342423423432432432424324223424234234324324324243242234242342343243243242432422342423423432432432424324223424234234324324324243242234242342343243243242432422342423423432432432424324223424234234324324324243242234242342343243243242432422342423423432432432424324223424234234324324324243242234242342343243243242432422342423423432432432424324223424234234324324324243242234242342343243243242432422342423423432432432424324223424234234324324324243242234242342343243243242432422342423423432432432424324223424234234324324324243242234242342343243243242432422342423423432432432424324223424234234324324324243242</t>
+  </si>
+  <si>
+    <t>prompt for char position/display char length/display converted int/display converted string
+convertingInt() displays converted number "-1" when string is too large
+convertingInt() displays converted number is "inf"</t>
+  </si>
+  <si>
+    <t>Multiple test</t>
+  </si>
+  <si>
+    <t>See above</t>
+  </si>
+  <si>
+    <t>Move from one module to next</t>
+  </si>
+  <si>
+    <t>Modules end after multiple tests</t>
+  </si>
+  <si>
+    <t>Edge Case: numbers and characters</t>
+  </si>
+  <si>
+    <t>Input a string with numbers and a character</t>
+  </si>
+  <si>
+    <t>If there are numbers at the beginning of string, they are converted up the the first character - want to reprompt user</t>
+  </si>
+  <si>
+    <t>Fundamentals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fundamentalsIndexing();
+fundamentalsMeasuring();
+fundamentalsCopying();
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -245,6 +264,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -497,7 +529,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -581,21 +613,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -632,7 +649,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -922,19 +966,19 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="15" customWidth="1"/>
     <col min="3" max="3" width="29.5" style="15" customWidth="1"/>
     <col min="4" max="4" width="27.33203125" style="15" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="42" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="37" customWidth="1"/>
     <col min="7" max="7" width="28.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="42" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="37" customWidth="1"/>
     <col min="9" max="9" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -942,17 +986,19 @@
       <c r="A1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
       <c r="E1" s="13"/>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="33" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="38" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="25" t="s">
@@ -960,13 +1006,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="34" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="34" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="28" t="s">
@@ -989,13 +1035,13 @@
       <c r="E3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="35" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="27" t="s">
@@ -1004,158 +1050,194 @@
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" ht="70" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="32" t="s">
+      <c r="A4" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="C4" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="D4" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="36"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="31"/>
       <c r="I4" s="1"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="70" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="31" t="s">
+      <c r="A5" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="42"/>
+      <c r="H5" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="70" x14ac:dyDescent="0.2">
+      <c r="A6" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="34" t="s">
+      <c r="D6" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" ht="70" x14ac:dyDescent="0.2">
-      <c r="A6" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="37"/>
+      <c r="E6" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="41"/>
+      <c r="H6" s="32"/>
       <c r="I6" s="2"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="56" x14ac:dyDescent="0.2">
-      <c r="A7" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="37"/>
+    <row r="7" spans="1:11" ht="70" x14ac:dyDescent="0.2">
+      <c r="A7" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="49">
+        <v>0</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="32"/>
       <c r="I7" s="2"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" ht="56" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="35" t="s">
+      <c r="A8" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="37"/>
+      <c r="E8" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="32"/>
       <c r="I8" s="2"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="37"/>
+    <row r="9" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A9" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="52"/>
+      <c r="H9" s="32"/>
       <c r="I9" s="2"/>
       <c r="K9" s="5"/>
     </row>
-    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="37"/>
+    <row r="10" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="A10" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>13</v>
+      </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="37"/>
+      <c r="H10" s="32"/>
       <c r="I10" s="2"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="37"/>
+    <row r="11" spans="1:11" ht="56" x14ac:dyDescent="0.2">
+      <c r="A11" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="48" t="s">
+        <v>13</v>
+      </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="37"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="2"/>
       <c r="K11" s="5"/>
     </row>
@@ -1165,9 +1247,9 @@
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="37"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="37"/>
+      <c r="H12" s="32"/>
       <c r="I12" s="2"/>
       <c r="K12" s="5"/>
     </row>
@@ -1177,9 +1259,9 @@
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="37"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="37"/>
+      <c r="H13" s="32"/>
       <c r="I13" s="2"/>
       <c r="K13" s="5"/>
     </row>
@@ -1189,9 +1271,9 @@
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="37"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="37"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="2"/>
       <c r="K14" s="4"/>
     </row>
@@ -1201,9 +1283,9 @@
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="37"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="37"/>
+      <c r="H15" s="32"/>
       <c r="I15" s="2"/>
       <c r="K15" s="4"/>
     </row>
@@ -1213,9 +1295,9 @@
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="37"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="37"/>
+      <c r="H16" s="32"/>
       <c r="I16" s="2"/>
       <c r="K16" s="4"/>
     </row>
@@ -1225,9 +1307,9 @@
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="37"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="37"/>
+      <c r="H17" s="32"/>
       <c r="I17" s="2"/>
       <c r="K17" s="4"/>
     </row>
@@ -1237,9 +1319,9 @@
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="37"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="37"/>
+      <c r="H18" s="32"/>
       <c r="I18" s="2"/>
       <c r="K18" s="4"/>
     </row>
@@ -1249,9 +1331,9 @@
       <c r="C19" s="17"/>
       <c r="D19" s="18"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="37"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="37"/>
+      <c r="H19" s="32"/>
       <c r="I19" s="2"/>
       <c r="K19" s="4"/>
     </row>
@@ -1261,9 +1343,9 @@
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="37"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="37"/>
+      <c r="H20" s="32"/>
       <c r="I20" s="2"/>
       <c r="K20" s="4"/>
     </row>
@@ -1273,9 +1355,9 @@
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="37"/>
+      <c r="F21" s="32"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="37"/>
+      <c r="H21" s="32"/>
       <c r="I21" s="2"/>
       <c r="K21" s="4"/>
     </row>
@@ -1285,9 +1367,9 @@
       <c r="C22" s="17"/>
       <c r="D22" s="18"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="37"/>
+      <c r="F22" s="32"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="37"/>
+      <c r="H22" s="32"/>
       <c r="I22" s="2"/>
       <c r="K22" s="4"/>
     </row>
@@ -1297,9 +1379,9 @@
       <c r="C23" s="20"/>
       <c r="D23" s="21"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="41"/>
+      <c r="F23" s="36"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="41"/>
+      <c r="H23" s="36"/>
       <c r="I23" s="3"/>
     </row>
   </sheetData>

--- a/V3/fundamentals_test_cases.xlsx
+++ b/V3/fundamentals_test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheba/CPR101NAA_BB05/V3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF014F89-85E8-F846-A9A3-A3A3CAE7981C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F136B6-8F71-4E40-BEA0-5DD6B2025769}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28120" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <si>
     <t>Comments</t>
   </si>
@@ -208,6 +208,12 @@
 fundamentalsMeasuring();
 fundamentalsCopying();
 </t>
+  </si>
+  <si>
+    <t>Sheba Birhanu</t>
+  </si>
+  <si>
+    <t>Version 3</t>
   </si>
 </sst>
 </file>
@@ -966,7 +972,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -996,7 +1002,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="H1" s="38" t="s">
         <v>4</v>
@@ -1010,7 +1016,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H2" s="34" t="s">
         <v>10</v>
